--- a/web_scraper/processed_judgements_final/crl.a._297_2020.xlsx
+++ b/web_scraper/processed_judgements_final/crl.a._297_2020.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The appellant, Amir Muhammad Khan, was tried for the murder of Adam Khan, the father of the complainant, which occurred on February 6, 2012. * The prosecution alleged that the appellant committed the murder due to a dispute over land and construction of a house. * The complainant claimed that his father had forbidden him from marrying his daughter to a man named Sher Afzal, and that this led to a dispute between the two. * The prosecution produced 11 witnesses, including the sole eyewitness, Mst. Ansar Bibi, who claimed that the appellant inflicted two hatchet blows on the neck of the deceased and one blow on the back of his left hand. * The prosecution also presented medical evidence and recovered a blood-stained hatchet from a thoroughfare.  </t>
+          <t xml:space="preserve"> * The appellant, Amir Muhammad Khan, was tried for the murder of Adam Khan, the father of the complainant. * The crime took place on February 6, 2012, at around 9:00 am, when the appellant allegedly inflicted hatchet blows on Adam Khan's neck and left hand while armed with a hatchet. * The motive behind the murder was allegedly a dispute over land and construction of a house. * The prosecution produced 11 witnesses, including the sole eyewitness, Mst. Ansar Bibi, who claimed that the appellant committed the crime. * The prosecution also presented medical evidence and recovered a blood-stained hatchet from an open place.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Mst. Ansar Bibi (PW-9), the sole eyewitness, testified that the appellant inflicted the hatchet blows on the deceased. * Dr. Rizwan Shahid (PW-10), the medical witness, testified that the injuries on the deceased's neck were not consistent with the prosecution's account. * Zahid Iqbal, Halqa Patwari (PW-6), testified that the occurrence took place at a deserted place and there was no house or blood sign at the scene. * The complainant, Zafar Ali, testified that his father had forbidden him from marrying his daughter to Sher Afzal, leading to a dispute between the two.  </t>
+          <t xml:space="preserve"> * Mst. Ansar Bibi (PW-9), the sole eyewitness, who claimed that the appellant committed the crime. * Dr. Rizwan Shahid (PW-10), who conducted the autopsy and found that the injuries on Adam Khan's neck were not consistent with the eyewitness account. * Pervaiz Akhtar, SI/Investigating Officer (PW-11), who prepared the scaled site plan and testified that there was no house or blood sign at the place of occurrence.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The Supreme Court allowed the appeal and acquitted the appellant of the charge of murder. * The court held that the prosecution had failed to prove its case beyond a reasonable doubt due to several inconsistencies and contradictions in the evidence. * The court noted that the sole eyewitness, Mst. Ansar Bibi, had given a contradictory account of the occurrence, and that the medical evidence did not support the prosecution's claim. * The court also observed that the prosecution had failed to prove the motive behind the murder, and that the recovery of the blood-stained hatchet was inconsequential. * The court held that the benefit of the doubt must go to the accused, and that the acquittal was justified in light of the peculiar facts and circumstances of the case. </t>
+          <t xml:space="preserve"> * The appellant was convicted of murder by the trial court and sentenced to death. * The High Court altered the sentence to imprisonment for life. * The Supreme Court allowed the appeal and acquitted the appellant due to reasonable doubt in the prosecution's case. * The court held that the prosecution failed to prove its case beyond a reasonable shadow of doubt and that the conviction was based on unimpeachable, trustworthy, and reliable evidence. * The court also noted that the prosecution's case was full of contradictions and dishonest improvements, and that the eyewitness account was negated by the medical evidence. * The court further held that the recovery of the blood-stained hatchet was inconsequential and that the prosecution failed to prove the motive behind the murder. * The court ultimately acquitted the appellant and ordered his release from jail unless detained or required in any other case. </t>
         </is>
       </c>
     </row>
